--- a/1_wiktionary_parsen/Steuertabellen/lex_test.xlsx
+++ b/1_wiktionary_parsen/Steuertabellen/lex_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
   <si>
     <t xml:space="preserve">lex</t>
   </si>
@@ -49,6 +49,60 @@
     <t xml:space="preserve">notiz</t>
   </si>
   <si>
+    <t xml:space="preserve">ausgerutscht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partizip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ausrutschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVFIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entlassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gefriergetrocknet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gefriertrocknen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geschwommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schwimmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missraten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVINF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schwimmend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptz1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zugetan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zutun</t>
+  </si>
+  <si>
     <t xml:space="preserve">…</t>
   </si>
   <si>
@@ -112,27 +166,6 @@
     <t xml:space="preserve">VVIZU</t>
   </si>
   <si>
-    <t xml:space="preserve">VVFIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ausgerutscht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptz2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partizip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ausrutschen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VVPP</t>
-  </si>
-  <si>
     <t xml:space="preserve">auszupowern</t>
   </si>
   <si>
@@ -163,9 +196,6 @@
     <t xml:space="preserve">betreffen</t>
   </si>
   <si>
-    <t xml:space="preserve">VVINF</t>
-  </si>
-  <si>
     <t xml:space="preserve">BHs</t>
   </si>
   <si>
@@ -193,6 +223,12 @@
     <t xml:space="preserve">d.h.</t>
   </si>
   <si>
+    <t xml:space="preserve">dar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTKVZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">das</t>
   </si>
   <si>
@@ -205,6 +241,9 @@
     <t xml:space="preserve">die</t>
   </si>
   <si>
+    <t xml:space="preserve">drein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dumbledor</t>
   </si>
   <si>
@@ -238,9 +277,6 @@
     <t xml:space="preserve">eines</t>
   </si>
   <si>
-    <t xml:space="preserve">entlassen</t>
-  </si>
-  <si>
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
@@ -256,21 +292,9 @@
     <t xml:space="preserve">Fachmann</t>
   </si>
   <si>
-    <t xml:space="preserve">gefriergetrocknet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gefriertrocknen</t>
-  </si>
-  <si>
     <t xml:space="preserve">gehen</t>
   </si>
   <si>
-    <t xml:space="preserve">geschwommen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schwimmen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guadalajara</t>
   </si>
   <si>
@@ -295,6 +319,9 @@
     <t xml:space="preserve">PPER</t>
   </si>
   <si>
+    <t xml:space="preserve">inne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joleen</t>
   </si>
   <si>
@@ -310,9 +337,6 @@
     <t xml:space="preserve">Person_pre</t>
   </si>
   <si>
-    <t xml:space="preserve">missraten</t>
-  </si>
-  <si>
     <t xml:space="preserve">neunhunderttausend</t>
   </si>
   <si>
@@ -349,12 +373,6 @@
     <t xml:space="preserve">Einzelkorrekturen</t>
   </si>
   <si>
-    <t xml:space="preserve">schwimmend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptz1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spielende</t>
   </si>
   <si>
@@ -382,6 +400,9 @@
     <t xml:space="preserve">und</t>
   </si>
   <si>
+    <t xml:space="preserve">überein</t>
+  </si>
+  <si>
     <t xml:space="preserve">überläßt</t>
   </si>
   <si>
@@ -412,6 +433,15 @@
     <t xml:space="preserve">Wasser</t>
   </si>
   <si>
+    <t xml:space="preserve">welch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">z. B.</t>
   </si>
   <si>
@@ -436,46 +466,40 @@
     <t xml:space="preserve">zeichnen</t>
   </si>
   <si>
-    <t xml:space="preserve">zugetan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zutun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTKVZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">überein</t>
+    <t xml:space="preserve">zu viele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADV</t>
   </si>
   <si>
     <t xml:space="preserve">zurecht</t>
   </si>
   <si>
-    <t xml:space="preserve">zu viele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADV</t>
-  </si>
-  <si>
     <t xml:space="preserve">zuviele</t>
   </si>
   <si>
-    <t xml:space="preserve">welch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRELS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWAT</t>
+    <t xml:space="preserve">befangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">überlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erfahren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kein Partizip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auserlesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auslesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vorenthalten</t>
   </si>
 </sst>
 </file>
@@ -635,9 +659,9 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H99" activeCellId="0" sqref="H99"/>
+      <selection pane="bottomLeft" activeCell="H111" activeCellId="0" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.49609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,27 +719,30 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,228 +750,240 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>1</v>
@@ -952,24 +991,30 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>1</v>
@@ -977,61 +1022,67 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1</v>
@@ -1039,13 +1090,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1</v>
@@ -1053,50 +1107,47 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
@@ -1104,13 +1155,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1118,13 +1166,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1132,55 +1180,61 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>1</v>
@@ -1188,13 +1242,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1</v>
@@ -1204,34 +1258,28 @@
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,95 +1287,89 @@
         <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>1</v>
@@ -1335,67 +1377,55 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>1</v>
@@ -1403,106 +1433,118 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,47 +1552,35 @@
         <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C56" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G56" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,13 +1588,16 @@
         <v>100</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1605,7 @@
         <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>1</v>
@@ -1580,10 +1613,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>1</v>
@@ -1591,16 +1627,19 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,27 +1647,27 @@
         <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>1</v>
@@ -1636,10 +1675,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>1</v>
@@ -1647,19 +1689,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,61 +1703,55 @@
         <v>109</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>114</v>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,123 +1759,111 @@
         <v>114</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>119</v>
+      <c r="D72" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>1</v>
@@ -1853,320 +1871,521 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F77" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C81" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="E89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="G90" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>141</v>
+      <c r="E91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="G92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>147</v>
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="G96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/1_wiktionary_parsen/Steuertabellen/lex_test.xlsx
+++ b/1_wiktionary_parsen/Steuertabellen/lex_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="263">
   <si>
     <t xml:space="preserve">lex</t>
   </si>
@@ -34,7 +34,10 @@
     <t xml:space="preserve">lemma_tag</t>
   </si>
   <si>
-    <t xml:space="preserve">member</t>
+    <t xml:space="preserve">lex_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemma_member</t>
   </si>
   <si>
     <t xml:space="preserve">def</t>
@@ -64,19 +67,22 @@
     <t xml:space="preserve">°</t>
   </si>
   <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abkürzung</t>
   </si>
   <si>
-    <t xml:space="preserve">Grad</t>
+    <t xml:space="preserve">Einheit</t>
   </si>
   <si>
     <t xml:space="preserve">€</t>
   </si>
   <si>
+    <t xml:space="preserve">Euro</t>
+  </si>
+  <si>
     <t xml:space="preserve">NN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro</t>
   </si>
   <si>
     <t xml:space="preserve">Ackermann</t>
@@ -703,6 +709,12 @@
     <t xml:space="preserve">vergleichen</t>
   </si>
   <si>
+    <t xml:space="preserve">vgl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kürzt nicht das Lemma ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">verspeist</t>
   </si>
   <si>
@@ -797,6 +809,24 @@
   </si>
   <si>
     <t xml:space="preserve">oder ähnlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jemand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_Adresse</t>
   </si>
 </sst>
 </file>
@@ -806,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -861,12 +891,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -937,11 +961,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,12 +1003,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H152" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H161" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
+      <selection pane="bottomLeft" activeCell="E172" activeCellId="0" sqref="E172:F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.49609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -993,12 +1017,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="33.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,2884 +1041,3130 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="H37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H44" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H47" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H48" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H53" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H55" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H58" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G72" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H75" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H80" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H81" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="H83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H84" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>12</v>
+      <c r="I86" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G90" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="H90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H92" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H93" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H97" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G112" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G113" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H114" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G116" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="H116" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H119" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H120" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H121" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>179</v>
+        <v>119</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H123" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H124" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G125" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="H125" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H126" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G127" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H128" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H129" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G130" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="H130" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H131" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H132" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G133" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H133" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G134" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H134" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H135" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H139" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G140" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H140" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="H141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G142" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H142" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G144" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="H144" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G145" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H146" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G147" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H147" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G148" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H148" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G150" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="H150" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G151" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="H151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>150</v>
+        <v>57</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H153" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="s">
-        <v>223</v>
+        <v>13</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G154" s="1" t="n">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>225</v>
+        <v>31</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G157" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>179</v>
+        <v>31</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G158" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G159" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
-        <v>228</v>
+        <v>46</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>229</v>
+        <v>20</v>
+      </c>
+      <c r="H161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G162" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G163" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H163" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>12</v>
+        <v>233</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+      <c r="H165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G166" s="1" t="n">
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G167" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H167" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G168" s="1" t="n">
-        <v>3</v>
+        <v>187</v>
+      </c>
+      <c r="H168" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G169" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H169" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G170" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H170" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G171" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" s="1" t="n">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H173" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G174" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H175" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="s">
-        <v>247</v>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G177" s="1" t="n">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G178" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>12</v>
+      <c r="A178" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G179" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="H179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G180" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="H180" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G181" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7"/>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>254</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H181" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H182" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H186" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
